--- a/Code/Results/Cases/Case_4_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.16090577460852</v>
+        <v>22.4016796005221</v>
       </c>
       <c r="C2">
-        <v>11.16814802810108</v>
+        <v>7.243596312492197</v>
       </c>
       <c r="D2">
-        <v>8.971615018242142</v>
+        <v>13.4931077226102</v>
       </c>
       <c r="E2">
-        <v>8.034966393686025</v>
+        <v>13.72984108201061</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.104681534147495</v>
+        <v>3.706138319499908</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.918532628869389</v>
+        <v>8.34187757135391</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.399299815618074</v>
+        <v>12.78354738944779</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.76664695570765</v>
+        <v>19.55786906436056</v>
       </c>
       <c r="O2">
-        <v>21.77185429504776</v>
+        <v>32.14037786961303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.75619644303633</v>
+        <v>22.0593052593947</v>
       </c>
       <c r="C3">
-        <v>10.55732096163902</v>
+        <v>6.941061014812427</v>
       </c>
       <c r="D3">
-        <v>8.79187422160218</v>
+        <v>13.50005704823367</v>
       </c>
       <c r="E3">
-        <v>8.056496574655764</v>
+        <v>13.76302838162216</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.111916025752393</v>
+        <v>3.708886957952482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.941227435356111</v>
+        <v>8.350449333397798</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.186566160005439</v>
+        <v>12.77602942142691</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.99850786620987</v>
+        <v>19.62602733005188</v>
       </c>
       <c r="O3">
-        <v>21.46144263912916</v>
+        <v>32.19849744630404</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.85561356045413</v>
+        <v>21.85081713257965</v>
       </c>
       <c r="C4">
-        <v>10.16415588013979</v>
+        <v>6.747068331088045</v>
       </c>
       <c r="D4">
-        <v>8.685558157825767</v>
+        <v>13.5067764012555</v>
       </c>
       <c r="E4">
-        <v>8.073635660675082</v>
+        <v>13.78512670062921</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.116488525360978</v>
+        <v>3.710664429424212</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.955629499940968</v>
+        <v>8.35599426596775</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.057280776522187</v>
+        <v>12.77331011943408</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.14379747736673</v>
+        <v>19.66984256005751</v>
       </c>
       <c r="O4">
-        <v>21.28927101754921</v>
+        <v>32.24151114122029</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.47926870609342</v>
+        <v>21.76639722047495</v>
       </c>
       <c r="C5">
-        <v>9.999444417930846</v>
+        <v>6.66601167948434</v>
       </c>
       <c r="D5">
-        <v>8.64327597939053</v>
+        <v>13.51013150214801</v>
       </c>
       <c r="E5">
-        <v>8.081578142370041</v>
+        <v>13.79456503422889</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118385736444705</v>
+        <v>3.711411419619971</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.961617945675269</v>
+        <v>8.358324953664841</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.004988442952008</v>
+        <v>12.77268062678977</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.2037706071536</v>
+        <v>19.68819352279794</v>
       </c>
       <c r="O5">
-        <v>21.22364646834372</v>
+        <v>32.26087756052208</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.41622014505266</v>
+        <v>21.75241509027743</v>
       </c>
       <c r="C6">
-        <v>9.971824987898296</v>
+        <v>6.652433474692863</v>
       </c>
       <c r="D6">
-        <v>8.636318718867113</v>
+        <v>13.51072587631202</v>
       </c>
       <c r="E6">
-        <v>8.082954070849212</v>
+        <v>13.79615842815141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118702843322021</v>
+        <v>3.711536827387333</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.962619595351252</v>
+        <v>8.358716262056367</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.996330751678194</v>
+        <v>12.77260505426909</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.2137762599048</v>
+        <v>19.69127068417665</v>
       </c>
       <c r="O6">
-        <v>21.21302054291953</v>
+        <v>32.26420420258565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.85057555201999</v>
+        <v>21.84967628783156</v>
       </c>
       <c r="C7">
-        <v>10.1619526224018</v>
+        <v>6.745983186455111</v>
       </c>
       <c r="D7">
-        <v>8.684983672633713</v>
+        <v>13.50681915133334</v>
       </c>
       <c r="E7">
-        <v>8.073738931775235</v>
+        <v>13.78525223535926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.116513973261946</v>
+        <v>3.710674411760848</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.955709775864394</v>
+        <v>8.356025410343729</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.056573877726384</v>
+        <v>12.77329968978574</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.14460315317651</v>
+        <v>19.67008803758406</v>
       </c>
       <c r="O7">
-        <v>21.28836774773991</v>
+        <v>32.24176488822212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.68458323599489</v>
+        <v>22.28333287038052</v>
       </c>
       <c r="C8">
-        <v>10.96132577040661</v>
+        <v>7.141028893964714</v>
       </c>
       <c r="D8">
-        <v>8.908816303927777</v>
+        <v>13.49499504052048</v>
       </c>
       <c r="E8">
-        <v>8.041559748340852</v>
+        <v>13.7409270032721</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.107149564254814</v>
+        <v>3.707067458693638</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.926262006717552</v>
+        <v>8.344774748129046</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.32570592911852</v>
+        <v>12.78056259284178</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84600421893072</v>
+        <v>19.58096299644404</v>
       </c>
       <c r="O8">
-        <v>21.66094675939691</v>
+        <v>32.15889387606231</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.97197684214142</v>
+        <v>23.14285218621498</v>
       </c>
       <c r="C9">
-        <v>12.38337580391089</v>
+        <v>7.847870596610298</v>
       </c>
       <c r="D9">
-        <v>9.378708993843457</v>
+        <v>13.49124995929332</v>
       </c>
       <c r="E9">
-        <v>8.010832226131646</v>
+        <v>13.66764960017446</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.089769882615838</v>
+        <v>3.700703259235258</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.872129803526757</v>
+        <v>8.324938754805157</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.861698567856486</v>
+        <v>12.80977371612239</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.28220023842501</v>
+        <v>19.42171332788092</v>
       </c>
       <c r="O9">
-        <v>22.54149261851175</v>
+        <v>32.05472057118972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.19318336285453</v>
+        <v>23.77379991157393</v>
       </c>
       <c r="C10">
-        <v>13.33817532238793</v>
+        <v>8.323057394133993</v>
       </c>
       <c r="D10">
-        <v>9.741334734355823</v>
+        <v>13.50031716359604</v>
       </c>
       <c r="E10">
-        <v>8.009825540093512</v>
+        <v>13.62211351342729</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.077523729577139</v>
+        <v>3.696454871758309</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.834425185428555</v>
+        <v>8.311708967598454</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.257646521706246</v>
+        <v>12.84024079033526</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.87905318459937</v>
+        <v>19.31407287965522</v>
       </c>
       <c r="O10">
-        <v>23.28437624524766</v>
+        <v>32.01398215286687</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.20582807392076</v>
+        <v>24.05946495125689</v>
       </c>
       <c r="C11">
-        <v>13.75300148798454</v>
+        <v>8.529206366865647</v>
       </c>
       <c r="D11">
-        <v>9.909803056396569</v>
+        <v>13.50699659830215</v>
       </c>
       <c r="E11">
-        <v>8.014470639945321</v>
+        <v>13.60319678031098</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.072047510605642</v>
+        <v>3.694613941366665</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.817689052576898</v>
+        <v>8.305979270320289</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.437738408920234</v>
+        <v>12.85602674644989</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.69754113841754</v>
+        <v>19.26711488261891</v>
       </c>
       <c r="O11">
-        <v>23.64402448508395</v>
+        <v>32.00326116683395</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.58729109060164</v>
+        <v>24.16734342669723</v>
       </c>
       <c r="C12">
-        <v>13.90729257882917</v>
+        <v>8.605799996308882</v>
       </c>
       <c r="D12">
-        <v>9.974082769390254</v>
+        <v>13.50989184846302</v>
       </c>
       <c r="E12">
-        <v>8.016999921710697</v>
+        <v>13.59629175840988</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.069985733390483</v>
+        <v>3.693929934054967</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.811408552651769</v>
+        <v>8.303850864185023</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.505896521872781</v>
+        <v>12.8622785611696</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.62903234511149</v>
+        <v>19.24962024803273</v>
       </c>
       <c r="O12">
-        <v>23.78340154759542</v>
+        <v>32.00032675715562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.50545532915998</v>
+        <v>24.14412463939608</v>
       </c>
       <c r="C13">
-        <v>13.87418722471508</v>
+        <v>8.589370017358704</v>
       </c>
       <c r="D13">
-        <v>9.960217709063125</v>
+        <v>13.50925205738668</v>
       </c>
       <c r="E13">
-        <v>8.016420338231933</v>
+        <v>13.59776739209603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.070429270540832</v>
+        <v>3.694076665182126</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.812758675275538</v>
+        <v>8.304307420517079</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.491219660989076</v>
+        <v>12.86091998395936</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.64377763801503</v>
+        <v>19.25337527376631</v>
       </c>
       <c r="O13">
-        <v>23.75324144328262</v>
+        <v>32.00090865477574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.23735523850423</v>
+        <v>24.06834669287696</v>
       </c>
       <c r="C14">
-        <v>13.76575101234623</v>
+        <v>8.535537397417103</v>
       </c>
       <c r="D14">
-        <v>9.915081777360989</v>
+        <v>13.50722746853228</v>
       </c>
       <c r="E14">
-        <v>8.014663072929501</v>
+        <v>13.60262352373418</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.071877657500306</v>
+        <v>3.694557405271231</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.817171223484452</v>
+        <v>8.30580333834313</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.443346770951806</v>
+        <v>12.85653561320791</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.69190061871695</v>
+        <v>19.26566983794747</v>
       </c>
       <c r="O14">
-        <v>23.65542688668683</v>
+        <v>32.00299718643819</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.07219978779479</v>
+        <v>24.02188892455849</v>
       </c>
       <c r="C15">
-        <v>13.69896729056443</v>
+        <v>8.502371048152044</v>
       </c>
       <c r="D15">
-        <v>9.887497282783295</v>
+        <v>13.50603495162963</v>
       </c>
       <c r="E15">
-        <v>8.013688121987633</v>
+        <v>13.60563168146004</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.07276634070157</v>
+        <v>3.694853578075548</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.819881391493904</v>
+        <v>8.306725004707632</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.414017272533815</v>
+        <v>12.85388565209702</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.72140537165466</v>
+        <v>19.27323799131826</v>
       </c>
       <c r="O15">
-        <v>23.59592952790585</v>
+        <v>32.00442308551685</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.12906776101529</v>
+        <v>23.75509496395688</v>
       </c>
       <c r="C16">
-        <v>13.3106735155975</v>
+        <v>8.309380826157598</v>
       </c>
       <c r="D16">
-        <v>9.730393712437055</v>
+        <v>13.499931934035</v>
       </c>
       <c r="E16">
-        <v>8.009627738069083</v>
+        <v>13.62338592733722</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.077883378777234</v>
+        <v>3.696577019714673</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.835527073067248</v>
+        <v>8.31208920749658</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.245873416289005</v>
+        <v>12.83924765317244</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.89094953449178</v>
+        <v>19.31718198198491</v>
       </c>
       <c r="O16">
-        <v>23.26131466860382</v>
+        <v>32.0148401737292</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.56243293788484</v>
+        <v>23.59100465387992</v>
       </c>
       <c r="C17">
-        <v>13.06747436642373</v>
+        <v>8.188399094462556</v>
       </c>
       <c r="D17">
-        <v>9.63489866279993</v>
+        <v>13.49684128524985</v>
       </c>
       <c r="E17">
-        <v>8.008469267313711</v>
+        <v>13.63473791940476</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.081045613622058</v>
+        <v>3.697657726907443</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.84522984271264</v>
+        <v>8.315453750583178</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.142688795789356</v>
+        <v>12.83075903718967</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.99541045081284</v>
+        <v>19.34465351509004</v>
       </c>
       <c r="O17">
-        <v>23.0616444745691</v>
+        <v>32.02323307585409</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.2325241027113</v>
+        <v>23.49650245114759</v>
       </c>
       <c r="C18">
-        <v>12.92575424006294</v>
+        <v>8.117872315361835</v>
       </c>
       <c r="D18">
-        <v>9.580303595449417</v>
+        <v>13.49530419158162</v>
       </c>
       <c r="E18">
-        <v>8.008280990053242</v>
+        <v>13.64143652014715</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.082873460497059</v>
+        <v>3.698287954876877</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.850849934699432</v>
+        <v>8.317416122626927</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.083338894389694</v>
+        <v>12.82605811783958</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.05567355947003</v>
+        <v>19.36064351867648</v>
       </c>
       <c r="O18">
-        <v>22.94883876358732</v>
+        <v>32.02879558095437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.12013658119477</v>
+        <v>23.46448786831713</v>
       </c>
       <c r="C19">
-        <v>12.8774542945085</v>
+        <v>8.093832499155937</v>
       </c>
       <c r="D19">
-        <v>9.561876201083445</v>
+        <v>13.49482511632285</v>
       </c>
       <c r="E19">
-        <v>8.008298262815607</v>
+        <v>13.64373362346591</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.08349393429477</v>
+        <v>3.698502824261472</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.852759633305821</v>
+        <v>8.318085221509266</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.063245066444136</v>
+        <v>12.8244977290127</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.07610983227707</v>
+        <v>19.36608998199213</v>
       </c>
       <c r="O19">
-        <v>22.91099299589363</v>
+        <v>32.03080513268261</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.62316571541238</v>
+        <v>23.60848570115998</v>
       </c>
       <c r="C20">
-        <v>13.09355354477785</v>
+        <v>8.201375461262172</v>
       </c>
       <c r="D20">
-        <v>9.645030159189986</v>
+        <v>13.49714540232676</v>
       </c>
       <c r="E20">
-        <v>8.008542853824832</v>
+        <v>13.63351196667229</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.080708067074869</v>
+        <v>3.6975417907323</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.844192916330877</v>
+        <v>8.315092778041805</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.153673335626374</v>
+        <v>12.83164390041131</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.98427209763557</v>
+        <v>19.34170956231959</v>
       </c>
       <c r="O20">
-        <v>23.08268818530489</v>
+        <v>32.02226353618155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.31629767407727</v>
+        <v>24.09061335555335</v>
       </c>
       <c r="C21">
-        <v>13.7976770555941</v>
+        <v>8.551389468113737</v>
       </c>
       <c r="D21">
-        <v>9.928326284991867</v>
+        <v>13.50781222206471</v>
       </c>
       <c r="E21">
-        <v>8.015158020028023</v>
+        <v>13.60119015061822</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.071451920795361</v>
+        <v>3.694415844930286</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.815873623409177</v>
+        <v>8.305362831527663</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.457409496282748</v>
+        <v>12.85781599735071</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.67775997387643</v>
+        <v>19.26205083945707</v>
       </c>
       <c r="O21">
-        <v>23.68407039579975</v>
+        <v>32.00235317703837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.41330421913236</v>
+        <v>24.4039380173567</v>
       </c>
       <c r="C22">
-        <v>14.24158606359691</v>
+        <v>8.77156198140692</v>
       </c>
       <c r="D22">
-        <v>10.11629435232922</v>
+        <v>13.51691545536886</v>
       </c>
       <c r="E22">
-        <v>8.023989377862661</v>
+        <v>13.58157165198495</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.065471261519224</v>
+        <v>3.692449259196725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.797696845309416</v>
+        <v>8.299244422160145</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.655681329988102</v>
+        <v>12.87651661180814</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.4787301906964</v>
+        <v>19.2116634406898</v>
       </c>
       <c r="O22">
-        <v>24.09571198604051</v>
+        <v>31.99590082557876</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.83161623425963</v>
+        <v>24.23690561537838</v>
       </c>
       <c r="C23">
-        <v>14.00614625100307</v>
+        <v>8.654845725726288</v>
       </c>
       <c r="D23">
-        <v>10.01571984076893</v>
+        <v>13.5118623735688</v>
       </c>
       <c r="E23">
-        <v>8.018850939079769</v>
+        <v>13.59190471020624</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.068657545494736</v>
+        <v>3.693491895605282</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.807368731945054</v>
+        <v>8.302487974593358</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.549891391587192</v>
+        <v>12.86639078377783</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.58485334455188</v>
+        <v>19.23840342590688</v>
       </c>
       <c r="O23">
-        <v>23.87428668568625</v>
+        <v>31.99874375520782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.59572133145657</v>
+        <v>23.60058302421486</v>
       </c>
       <c r="C24">
-        <v>13.08176907238696</v>
+        <v>8.195511873524492</v>
       </c>
       <c r="D24">
-        <v>9.64044875400408</v>
+        <v>13.49700716406346</v>
       </c>
       <c r="E24">
-        <v>8.008508100039837</v>
+        <v>13.63406568353282</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.080860641108852</v>
+        <v>3.697594177701262</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.84466158022253</v>
+        <v>8.315255886333944</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.148707308674929</v>
+        <v>12.83124329502574</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.98930709858177</v>
+        <v>19.34303991189809</v>
       </c>
       <c r="O24">
-        <v>23.07316813838268</v>
+        <v>32.02269956845958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.11648938461854</v>
+        <v>22.9099901287771</v>
       </c>
       <c r="C25">
-        <v>12.01443587244691</v>
+        <v>7.664229161329726</v>
       </c>
       <c r="D25">
-        <v>9.248432561303048</v>
+        <v>13.49018425467617</v>
       </c>
       <c r="E25">
-        <v>8.015494170780368</v>
+        <v>13.68601412398398</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.094373837910974</v>
+        <v>3.702349541074021</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.886400781894846</v>
+        <v>8.330067966806654</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.716130313116405</v>
+        <v>12.80028032131476</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.43261288607414</v>
+        <v>19.46314338332623</v>
       </c>
       <c r="O25">
-        <v>22.28673234403735</v>
+        <v>32.07663049420722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.4016796005221</v>
+        <v>23.16090577460852</v>
       </c>
       <c r="C2">
-        <v>7.243596312492197</v>
+        <v>11.1681480281011</v>
       </c>
       <c r="D2">
-        <v>13.4931077226102</v>
+        <v>8.971615018242199</v>
       </c>
       <c r="E2">
-        <v>13.72984108201061</v>
+        <v>8.034966393685963</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.706138319499908</v>
+        <v>2.10468153414763</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.34187757135391</v>
+        <v>4.91853262886929</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.78354738944779</v>
+        <v>8.399299815618035</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.55786906436056</v>
+        <v>12.76664695570762</v>
       </c>
       <c r="O2">
-        <v>32.14037786961303</v>
+        <v>21.77185429504773</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.0593052593947</v>
+        <v>21.75619644303632</v>
       </c>
       <c r="C3">
-        <v>6.941061014812427</v>
+        <v>10.55732096163928</v>
       </c>
       <c r="D3">
-        <v>13.50005704823367</v>
+        <v>8.791874221602122</v>
       </c>
       <c r="E3">
-        <v>13.76302838162216</v>
+        <v>8.0564965746557</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.708886957952482</v>
+        <v>2.111916025752393</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.350449333397798</v>
+        <v>4.941227435356111</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.77602942142691</v>
+        <v>8.186566160005363</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.62602733005188</v>
+        <v>12.99850786620987</v>
       </c>
       <c r="O3">
-        <v>32.19849744630404</v>
+        <v>21.46144263912909</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.85081713257965</v>
+        <v>20.85561356045417</v>
       </c>
       <c r="C4">
-        <v>6.747068331088045</v>
+        <v>10.16415588013986</v>
       </c>
       <c r="D4">
-        <v>13.5067764012555</v>
+        <v>8.685558157825845</v>
       </c>
       <c r="E4">
-        <v>13.78512670062921</v>
+        <v>8.073635660675141</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.710664429424212</v>
+        <v>2.116488525361112</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.35599426596775</v>
+        <v>4.955629499940969</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.77331011943408</v>
+        <v>8.057280776522195</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.66984256005751</v>
+        <v>13.1437974773668</v>
       </c>
       <c r="O4">
-        <v>32.24151114122029</v>
+        <v>21.28927101754938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.76639722047495</v>
+        <v>20.47926870609342</v>
       </c>
       <c r="C5">
-        <v>6.66601167948434</v>
+        <v>9.999444417930931</v>
       </c>
       <c r="D5">
-        <v>13.51013150214801</v>
+        <v>8.643275979390577</v>
       </c>
       <c r="E5">
-        <v>13.79456503422889</v>
+        <v>8.081578142370036</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.711411419619971</v>
+        <v>2.118385736444837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.358324953664841</v>
+        <v>4.961617945675235</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.77268062678977</v>
+        <v>8.004988442952019</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.68819352279794</v>
+        <v>13.20377060715367</v>
       </c>
       <c r="O5">
-        <v>32.26087756052208</v>
+        <v>21.22364646834382</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.75241509027743</v>
+        <v>20.41622014505268</v>
       </c>
       <c r="C6">
-        <v>6.652433474692863</v>
+        <v>9.971824987898211</v>
       </c>
       <c r="D6">
-        <v>13.51072587631202</v>
+        <v>8.636318718867052</v>
       </c>
       <c r="E6">
-        <v>13.79615842815141</v>
+        <v>8.082954070849203</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.711536827387333</v>
+        <v>2.11870284332189</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.358716262056367</v>
+        <v>4.962619595351319</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.77260505426909</v>
+        <v>7.996330751678178</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.69127068417665</v>
+        <v>13.2137762599048</v>
       </c>
       <c r="O6">
-        <v>32.26420420258565</v>
+        <v>21.21302054291959</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.84967628783156</v>
+        <v>20.85057555201999</v>
       </c>
       <c r="C7">
-        <v>6.745983186455111</v>
+        <v>10.16195262240181</v>
       </c>
       <c r="D7">
-        <v>13.50681915133334</v>
+        <v>8.684983672633779</v>
       </c>
       <c r="E7">
-        <v>13.78525223535926</v>
+        <v>8.073738931775402</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.710674411760848</v>
+        <v>2.116513973262078</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.356025410343729</v>
+        <v>4.955709775864494</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.77329968978574</v>
+        <v>8.056573877726459</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.67008803758406</v>
+        <v>13.14460315317664</v>
       </c>
       <c r="O7">
-        <v>32.24176488822212</v>
+        <v>21.28836774774011</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.28333287038052</v>
+        <v>22.6845832359949</v>
       </c>
       <c r="C8">
-        <v>7.141028893964714</v>
+        <v>10.96132577040678</v>
       </c>
       <c r="D8">
-        <v>13.49499504052048</v>
+        <v>8.908816303927779</v>
       </c>
       <c r="E8">
-        <v>13.7409270032721</v>
+        <v>8.041559748340907</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.707067458693638</v>
+        <v>2.107149564254817</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.344774748129046</v>
+        <v>4.926262006717585</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.78056259284178</v>
+        <v>8.325705929118513</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.58096299644404</v>
+        <v>12.84600421893082</v>
       </c>
       <c r="O8">
-        <v>32.15889387606231</v>
+        <v>21.660946759397</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.14285218621498</v>
+        <v>25.97197684214142</v>
       </c>
       <c r="C9">
-        <v>7.847870596610298</v>
+        <v>12.38337580391084</v>
       </c>
       <c r="D9">
-        <v>13.49124995929332</v>
+        <v>9.378708993843397</v>
       </c>
       <c r="E9">
-        <v>13.66764960017446</v>
+        <v>8.01083222613174</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.700703259235258</v>
+        <v>2.08976988261597</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.324938754805157</v>
+        <v>4.872129803526859</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.80977371612239</v>
+        <v>8.861698567856497</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.42171332788092</v>
+        <v>12.28220023842498</v>
       </c>
       <c r="O9">
-        <v>32.05472057118972</v>
+        <v>22.54149261851169</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.77379991157393</v>
+        <v>28.19318336285457</v>
       </c>
       <c r="C10">
-        <v>8.323057394133993</v>
+        <v>13.33817532238792</v>
       </c>
       <c r="D10">
-        <v>13.50031716359604</v>
+        <v>9.741334734355949</v>
       </c>
       <c r="E10">
-        <v>13.62211351342729</v>
+        <v>8.009825540093512</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.696454871758309</v>
+        <v>2.077523729577008</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.311708967598454</v>
+        <v>4.834425185428522</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.84024079033526</v>
+        <v>9.257646521706214</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.31407287965522</v>
+        <v>11.87905318459937</v>
       </c>
       <c r="O10">
-        <v>32.01398215286687</v>
+        <v>23.28437624524773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.05946495125689</v>
+        <v>29.20582807392083</v>
       </c>
       <c r="C11">
-        <v>8.529206366865647</v>
+        <v>13.75300148798438</v>
       </c>
       <c r="D11">
-        <v>13.50699659830215</v>
+        <v>9.909803056396274</v>
       </c>
       <c r="E11">
-        <v>13.60319678031098</v>
+        <v>8.014470639945234</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.694613941366665</v>
+        <v>2.072047510605111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.305979270320289</v>
+        <v>4.817689052576966</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.85602674644989</v>
+        <v>9.437738408920241</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.26711488261891</v>
+        <v>11.69754113841738</v>
       </c>
       <c r="O11">
-        <v>32.00326116683395</v>
+        <v>23.6440244850838</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.16734342669723</v>
+        <v>29.58729109060161</v>
       </c>
       <c r="C12">
-        <v>8.605799996308882</v>
+        <v>13.9072925788291</v>
       </c>
       <c r="D12">
-        <v>13.50989184846302</v>
+        <v>9.974082769390249</v>
       </c>
       <c r="E12">
-        <v>13.59629175840988</v>
+        <v>8.016999921710607</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.693929934054967</v>
+        <v>2.06998573339035</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.303850864185023</v>
+        <v>4.811408552651701</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.8622785611696</v>
+        <v>9.505896521872764</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.24962024803273</v>
+        <v>11.62903234511149</v>
       </c>
       <c r="O12">
-        <v>32.00032675715562</v>
+        <v>23.78340154759549</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.14412463939608</v>
+        <v>29.50545532915998</v>
       </c>
       <c r="C13">
-        <v>8.589370017358704</v>
+        <v>13.8741872247151</v>
       </c>
       <c r="D13">
-        <v>13.50925205738668</v>
+        <v>9.960217709063155</v>
       </c>
       <c r="E13">
-        <v>13.59776739209603</v>
+        <v>8.016420338231985</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.694076665182126</v>
+        <v>2.070429270541098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.304307420517079</v>
+        <v>4.812758675275538</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.86091998395936</v>
+        <v>9.491219660989092</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.25337527376631</v>
+        <v>11.64377763801503</v>
       </c>
       <c r="O13">
-        <v>32.00090865477574</v>
+        <v>23.75324144328259</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.06834669287696</v>
+        <v>29.23735523850427</v>
       </c>
       <c r="C14">
-        <v>8.535537397417103</v>
+        <v>13.76575101234623</v>
       </c>
       <c r="D14">
-        <v>13.50722746853228</v>
+        <v>9.915081777360969</v>
       </c>
       <c r="E14">
-        <v>13.60262352373418</v>
+        <v>8.014663072929551</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.694557405271231</v>
+        <v>2.071877657500174</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.30580333834313</v>
+        <v>4.817171223484453</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.85653561320791</v>
+        <v>9.44334677095177</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.26566983794747</v>
+        <v>11.69190061871688</v>
       </c>
       <c r="O14">
-        <v>32.00299718643819</v>
+        <v>23.65542688668681</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.02188892455849</v>
+        <v>29.07219978779476</v>
       </c>
       <c r="C15">
-        <v>8.502371048152044</v>
+        <v>13.69896729056441</v>
       </c>
       <c r="D15">
-        <v>13.50603495162963</v>
+        <v>9.887497282783277</v>
       </c>
       <c r="E15">
-        <v>13.60563168146004</v>
+        <v>8.013688121987689</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.694853578075548</v>
+        <v>2.07276634070157</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.306725004707632</v>
+        <v>4.819881391493904</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.85388565209702</v>
+        <v>9.414017272533815</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.27323799131826</v>
+        <v>11.72140537165473</v>
       </c>
       <c r="O15">
-        <v>32.00442308551685</v>
+        <v>23.59592952790597</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.75509496395688</v>
+        <v>28.12906776101527</v>
       </c>
       <c r="C16">
-        <v>8.309380826157598</v>
+        <v>13.31067351559736</v>
       </c>
       <c r="D16">
-        <v>13.499931934035</v>
+        <v>9.730393712437021</v>
       </c>
       <c r="E16">
-        <v>13.62338592733722</v>
+        <v>8.00962773806903</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.696577019714673</v>
+        <v>2.077883378777101</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.31208920749658</v>
+        <v>4.835527073067182</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.83924765317244</v>
+        <v>9.245873416289019</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.31718198198491</v>
+        <v>11.89094953449178</v>
       </c>
       <c r="O16">
-        <v>32.0148401737292</v>
+        <v>23.26131466860387</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.59100465387992</v>
+        <v>27.56243293788484</v>
       </c>
       <c r="C17">
-        <v>8.188399094462556</v>
+        <v>13.06747436642373</v>
       </c>
       <c r="D17">
-        <v>13.49684128524985</v>
+        <v>9.634898662799914</v>
       </c>
       <c r="E17">
-        <v>13.63473791940476</v>
+        <v>8.008469267313655</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.697657726907443</v>
+        <v>2.081045613622057</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.315453750583178</v>
+        <v>4.845229842712608</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.83075903718967</v>
+        <v>9.142688795789326</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.34465351509004</v>
+        <v>11.99541045081281</v>
       </c>
       <c r="O17">
-        <v>32.02323307585409</v>
+        <v>23.06164447456909</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.49650245114759</v>
+        <v>27.23252410271132</v>
       </c>
       <c r="C18">
-        <v>8.117872315361835</v>
+        <v>12.92575424006295</v>
       </c>
       <c r="D18">
-        <v>13.49530419158162</v>
+        <v>9.580303595449454</v>
       </c>
       <c r="E18">
-        <v>13.64143652014715</v>
+        <v>8.008280990053233</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.698287954876877</v>
+        <v>2.082873460497058</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.317416122626927</v>
+        <v>4.850849934699367</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.82605811783958</v>
+        <v>9.083338894389678</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.36064351867648</v>
+        <v>12.05567355946999</v>
       </c>
       <c r="O18">
-        <v>32.02879558095437</v>
+        <v>22.94883876358721</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46448786831713</v>
+        <v>27.12013658119474</v>
       </c>
       <c r="C19">
-        <v>8.093832499155937</v>
+        <v>12.87745429450859</v>
       </c>
       <c r="D19">
-        <v>13.49482511632285</v>
+        <v>9.561876201083477</v>
       </c>
       <c r="E19">
-        <v>13.64373362346591</v>
+        <v>8.008298262815655</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.698502824261472</v>
+        <v>2.0834939342949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.318085221509266</v>
+        <v>4.852759633305887</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.8244977290127</v>
+        <v>9.063245066444182</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.36608998199213</v>
+        <v>12.07610983227711</v>
       </c>
       <c r="O19">
-        <v>32.03080513268261</v>
+        <v>22.91099299589367</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.60848570115998</v>
+        <v>27.62316571541239</v>
       </c>
       <c r="C20">
-        <v>8.201375461262172</v>
+        <v>13.09355354477786</v>
       </c>
       <c r="D20">
-        <v>13.49714540232676</v>
+        <v>9.645030159189947</v>
       </c>
       <c r="E20">
-        <v>13.63351196667229</v>
+        <v>8.008542853824832</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.6975417907323</v>
+        <v>2.080708067074601</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.315092778041805</v>
+        <v>4.844192916330944</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.83164390041131</v>
+        <v>9.153673335626406</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.34170956231959</v>
+        <v>11.98427209763564</v>
       </c>
       <c r="O20">
-        <v>32.02226353618155</v>
+        <v>23.08268818530498</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.09061335555335</v>
+        <v>29.31629767407725</v>
       </c>
       <c r="C21">
-        <v>8.551389468113737</v>
+        <v>13.79767705559394</v>
       </c>
       <c r="D21">
-        <v>13.50781222206471</v>
+        <v>9.928326284991835</v>
       </c>
       <c r="E21">
-        <v>13.60119015061822</v>
+        <v>8.015158020028071</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.694415844930286</v>
+        <v>2.071451920795363</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.305362831527663</v>
+        <v>4.815873623409177</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.85781599735071</v>
+        <v>9.457409496282795</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.26205083945707</v>
+        <v>11.6777599738765</v>
       </c>
       <c r="O21">
-        <v>32.00235317703837</v>
+        <v>23.68407039579983</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.4039380173567</v>
+        <v>30.41330421913234</v>
       </c>
       <c r="C22">
-        <v>8.77156198140692</v>
+        <v>14.24158606359681</v>
       </c>
       <c r="D22">
-        <v>13.51691545536886</v>
+        <v>10.11629435232916</v>
       </c>
       <c r="E22">
-        <v>13.58157165198495</v>
+        <v>8.023989377862662</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.692449259196725</v>
+        <v>2.065471261519091</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.299244422160145</v>
+        <v>4.797696845309448</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.87651661180814</v>
+        <v>9.655681329988109</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.2116634406898</v>
+        <v>11.4787301906965</v>
       </c>
       <c r="O22">
-        <v>31.99590082557876</v>
+        <v>24.09571198604058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.23690561537838</v>
+        <v>29.83161623425959</v>
       </c>
       <c r="C23">
-        <v>8.654845725726288</v>
+        <v>14.0061462510029</v>
       </c>
       <c r="D23">
-        <v>13.5118623735688</v>
+        <v>10.01571984076897</v>
       </c>
       <c r="E23">
-        <v>13.59190471020624</v>
+        <v>8.018850939079806</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.693491895605282</v>
+        <v>2.06865754549447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.302487974593358</v>
+        <v>4.807368731945086</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.86639078377783</v>
+        <v>9.549891391587259</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.23840342590688</v>
+        <v>11.58485334455195</v>
       </c>
       <c r="O23">
-        <v>31.99874375520782</v>
+        <v>23.87428668568632</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.60058302421486</v>
+        <v>27.59572133145656</v>
       </c>
       <c r="C24">
-        <v>8.195511873524492</v>
+        <v>13.08176907238697</v>
       </c>
       <c r="D24">
-        <v>13.49700716406346</v>
+        <v>9.640448754004076</v>
       </c>
       <c r="E24">
-        <v>13.63406568353282</v>
+        <v>8.008508100039874</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.697594177701262</v>
+        <v>2.080860641108583</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.315255886333944</v>
+        <v>4.844661580222565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.83124329502574</v>
+        <v>9.148707308674968</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.34303991189809</v>
+        <v>11.98930709858184</v>
       </c>
       <c r="O24">
-        <v>32.02269956845958</v>
+        <v>23.07316813838287</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9099901287771</v>
+        <v>25.11648938461855</v>
       </c>
       <c r="C25">
-        <v>7.664229161329726</v>
+        <v>12.01443587244699</v>
       </c>
       <c r="D25">
-        <v>13.49018425467617</v>
+        <v>9.24843256130319</v>
       </c>
       <c r="E25">
-        <v>13.68601412398398</v>
+        <v>8.015494170780435</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.702349541074021</v>
+        <v>2.094373837910974</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.330067966806654</v>
+        <v>4.886400781894847</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.80028032131476</v>
+        <v>8.716130313116413</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.46314338332623</v>
+        <v>12.43261288607404</v>
       </c>
       <c r="O25">
-        <v>32.07663049420722</v>
+        <v>22.28673234403716</v>
       </c>
     </row>
   </sheetData>
